--- a/templates/export/devices.xlsx
+++ b/templates/export/devices.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filing Cabinet\IdeaProjects\test\templates\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A06834-82C0-43ED-8358-1116DEBE5C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,11 +38,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="H5")</t>
+          <t>jx:area(lastCell="K5")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="items", var="item", lastCell="H5")</t>
+          <t>jx:each(items="items", var="item", lastCell="K5")</t>
         </r>
       </text>
     </comment>
@@ -54,71 +59,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.device.name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.device.uniqueId}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.device.phone}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.device.model}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.device.contact}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.device.status}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", item.device.lastUpdate, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${item.position.address}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Report type:</t>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Last Update</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>${item.device.name}</t>
+  </si>
+  <si>
+    <t>${item.device.uniqueId}</t>
+  </si>
+  <si>
+    <t>${item.device.phone}</t>
+  </si>
+  <si>
+    <t>${item.device.model}</t>
+  </si>
+  <si>
+    <t>${item.device.contact}</t>
+  </si>
+  <si>
+    <t>${item.device.status}</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", item.device.lastUpdate, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${item.position.address}</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>${item.group.name}</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>${item.device.vin}</t>
+  </si>
+  <si>
+    <t>${item.device.license}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,22 +146,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
@@ -150,7 +154,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -165,7 +169,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -213,108 +217,69 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="15"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -373,13 +338,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -388,14 +369,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1223280</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185055</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -407,7 +394,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -417,9 +404,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -433,14 +426,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1223280</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185055</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -452,7 +451,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -462,9 +461,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -478,14 +483,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1223280</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185055</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -497,7 +508,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -507,9 +518,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -523,14 +540,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1223640</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185415</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="5" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -542,7 +565,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -552,9 +575,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -568,14 +597,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1223640</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185415</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="6" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -587,7 +622,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -597,9 +632,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -613,14 +654,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1223640</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185415</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="7" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -632,7 +679,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -642,9 +689,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -654,56 +707,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -756,128 +809,137 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMM5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="44.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1009" style="1" width="11.52"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" customWidth="1"/>
+    <col min="1012" max="1027" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+    <row r="1" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+    <row r="3" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:1027" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:1027" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="ALU5" s="1"/>
-      <c r="ALV5" s="1"/>
-      <c r="ALW5" s="1"/>
-      <c r="ALX5" s="1"/>
-      <c r="ALY5" s="1"/>
-      <c r="ALZ5" s="1"/>
-      <c r="AMA5" s="1"/>
-      <c r="AMB5" s="1"/>
-      <c r="AMC5" s="1"/>
-      <c r="AMD5" s="1"/>
-      <c r="AME5" s="1"/>
-      <c r="AMF5" s="1"/>
-      <c r="AMG5" s="1"/>
-      <c r="AMH5" s="1"/>
-      <c r="AMI5" s="1"/>
-      <c r="AMJ5" s="1"/>
+      <c r="ALX5"/>
+      <c r="ALY5"/>
+      <c r="ALZ5"/>
+      <c r="AMA5"/>
+      <c r="AMB5"/>
+      <c r="AMC5"/>
+      <c r="AMD5"/>
+      <c r="AME5"/>
+      <c r="AMF5"/>
+      <c r="AMG5"/>
+      <c r="AMH5"/>
+      <c r="AMI5"/>
+      <c r="AMJ5"/>
+      <c r="AMK5"/>
+      <c r="AML5"/>
+      <c r="AMM5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>